--- a/DateBase/orders/Nha Thu_2025-10-3.xlsx
+++ b/DateBase/orders/Nha Thu_2025-10-3.xlsx
@@ -520,6 +520,9 @@
       <c r="C11" t="str">
         <v>578_腊梅粉_wax pink_undefined_1bunch</v>
       </c>
+      <c r="F11" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -581,7 +584,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>015888655580</v>
+        <v>015888655585</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-10-3.xlsx
+++ b/DateBase/orders/Nha Thu_2025-10-3.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -524,9 +524,442 @@
         <v>5</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>2</v>
+      </c>
+      <c r="C12" t="str">
+        <v>727_绿剑叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F12" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="str">
+        <v>476_酸浆果_Physalis_undefined_1bunch</v>
+      </c>
+      <c r="F13" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>316_尤加利叶大叶_Eucalyptus Cinerea_undefined_1bunch</v>
+      </c>
+      <c r="F14" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="str">
+        <v>631_吸色康乃馨宝蓝_tinted blue_undefined_20stems</v>
+      </c>
+      <c r="F15" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>277_草莓杏仁饼_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F16" t="str">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>3</v>
+      </c>
+      <c r="C17" t="str">
+        <v>608_康乃馨笑颜_undefined_undefined_20stems</v>
+      </c>
+      <c r="F17" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="str">
+        <v>604_康乃馨粉佳人_pink_undefined_20stems</v>
+      </c>
+      <c r="F18" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="str">
+        <v>600_康乃馨复古红_vintage red_undefined_20stems</v>
+      </c>
+      <c r="F19" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>221_朱丽叶塔_Julieta_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F20" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="str">
+        <v>252_露露公主_Princess Lulu_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F21" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>252_露露公主_Princess Lulu_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F22" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>276_情迷罗拉_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F23" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>276_情迷罗拉_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F24" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>4</v>
+      </c>
+      <c r="C25" t="str">
+        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F25" t="str">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>173_朱丽叶_Juliet_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F26" t="str">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F27" t="str">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>5</v>
+      </c>
+      <c r="C28" t="str">
+        <v>154_莫泊_Moab_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F28" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>149_骄傲_Proud_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F29" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F30" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>600_康乃馨复古红_vintage red_undefined_20stems</v>
+      </c>
+      <c r="F31" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>611_康乃馨奶油白_cream white_undefined_20stems</v>
+      </c>
+      <c r="F32" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>602_康乃馨白_white_undefined_20stems</v>
+      </c>
+      <c r="F33" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>6</v>
+      </c>
+      <c r="C34" t="str">
+        <v>184_微光_shimmer_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F34" t="str">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>160_卡布奇诺_Cappuccino_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F35" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F36" t="str">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F37" t="str">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>189_洛神_Mandala_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F38" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>602_康乃馨白_white_undefined_20stems</v>
+      </c>
+      <c r="F39" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>7</v>
+      </c>
+      <c r="C40" t="str">
+        <v>189_洛神_Mandala_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F40" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="str">
+        <v>136_爱慕_adore_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F41" t="str">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>136_爱慕_adore_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F42" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>8</v>
+      </c>
+      <c r="C43" t="str">
+        <v>320_雪柳花_Spiraea flower white_undefined_1bunch</v>
+      </c>
+      <c r="F43" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>9</v>
+      </c>
+      <c r="C44" t="str">
+        <v>535_雪果白_snow berry white_undefined_1bunch</v>
+      </c>
+      <c r="F44" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>713_雪果粉_snowberry pink_undefined_1bunch</v>
+      </c>
+      <c r="F45" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>535_雪果白_snow berry white_undefined_1bunch</v>
+      </c>
+      <c r="F46" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>10</v>
+      </c>
+      <c r="C47" t="str">
+        <v>637_干花小盼草红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F47" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>1</v>
+      </c>
+      <c r="C48" t="str">
+        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F48" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="str">
+        <v>137_凯瑟琳_Catherine_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F49" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="str">
+        <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F50" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>2</v>
+      </c>
+      <c r="C51" t="str">
+        <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F51" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F52" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="str">
+        <v>223_巧克力泡泡_Chocolate Bubbles_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F53" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="str">
+        <v>227_多头卡布奇诺_Cappuccino spray_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F54" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="str">
+        <v>238_苏菲宝贝_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F55" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+      <c r="F56" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="str">
+        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
+      </c>
+      <c r="F57" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" xml:space="preserve">
+      <c r="C58" t="str" xml:space="preserve">
+        <v xml:space="preserve">510_翠珠白_Didiscus caeruleus 
+white_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F58" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" xml:space="preserve">
+      <c r="C59" t="str" xml:space="preserve">
+        <v xml:space="preserve">416_翠珠紫_Didiscus caeruleus
+blue_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F59" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" xml:space="preserve">
+      <c r="C60" t="str" xml:space="preserve">
+        <v xml:space="preserve">509_翠珠粉_Didiscus caeruleus
+pink_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F60" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L61"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -584,7 +1017,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>015888655585</v>
+        <v>01588865558581020102215151010610108161311.515111055414109.53.5511710.5102055530209937551020102015150</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-10-3.xlsx
+++ b/DateBase/orders/Nha Thu_2025-10-3.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L70"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -956,10 +956,91 @@
       <c r="A61" t="str">
         <v>3</v>
       </c>
+      <c r="C61" t="str">
+        <v>632_吸色康乃馨紫_tinted purple_undefined_20stems</v>
+      </c>
+      <c r="F61" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" t="str">
+        <v>476_酸浆果_Physalis_undefined_1bunch</v>
+      </c>
+      <c r="F62" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" t="str">
+        <v>550_蕾丝红色_lace flower brown_undefined_1bunch</v>
+      </c>
+      <c r="F63" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="str">
+        <v>582_腊梅蓝_wax blue_undefined_1bunch</v>
+      </c>
+      <c r="F64" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" t="str">
+        <v>578_腊梅粉_wax pink_undefined_1bunch</v>
+      </c>
+      <c r="F65" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="str">
+        <v>551_铁线莲_Glematis_undefined_1bunch</v>
+      </c>
+      <c r="F66" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" t="str">
+        <v>643_巧克力秋英_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F67" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" t="str">
+        <v>625_多丁紫蝴蝶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F68" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>4</v>
+      </c>
+      <c r="C69" t="str">
+        <v>49_亚丁_Pasta Rosata_Gerbera L._10stems</v>
+      </c>
+      <c r="F69" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="C70" t="str">
+        <v>49_亚丁_Pasta Rosata_Gerbera L._10stems</v>
+      </c>
+      <c r="F70" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L61"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L70"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1017,7 +1098,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01588865558581020102215151010610108161311.515111055414109.53.5511710.5102055530209937551020102015150</v>
+        <v>01588865558581020102215151010610108161311.515111055414109.53.5511710.5102055530209937551020102015151010105103105205</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-10-3.xlsx
+++ b/DateBase/orders/Nha Thu_2025-10-3.xlsx
@@ -1100,6 +1100,9 @@
       <c r="G2" t="str">
         <v>01588865558581020102215151010610108161311.515111055414109.53.5511710.5102055530209937551020102015151010105103105205</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
